--- a/biology/Botanique/Bruyère/Bruyère.xlsx
+++ b/biology/Botanique/Bruyère/Bruyère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bruy%C3%A8re</t>
+          <t>Bruyère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bruyères regroupent plus de 800 espèces de plantes dicotylédones dans la famille des Éricacées.
 On connaît deux genres appelés communément « bruyère » : Erica et le genre monospécifique Calluna, auxquels il convient d’ajouter les genres Daboecia et Bruckenthalia. Certains auteurs incluent le genre monospécifique Bruckenthalia dans le genre Erica, d’autres incluent Erica sicula dans un genre séparé Pentapera.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bruy%C3%A8re</t>
+          <t>Bruyère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,15 +530,122 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genre Calluna
-Calluna vulgaris (L.) Hull (Syn. : Ericodes vulgaris (L.) Merino) — bruyère callune, bruyère commune : Europe, Afrique du Nord et Asie Mineure. Var. hirsuta Gray est à feuilles tomenteuses.
-Genre Bruckenthalia
-Bruckenthalia spiculifolia (Salisb.) Rchb. (Syn. Erica spiculifolia Salisb.) — bruyère en épi : bruyère à petites fleurs rosées en ombelles terminales, atteignant 25 cm de hauteur ; Roumanie, Balkans et nord de la Turquie.
-Genre Daboecia
-Daboecia azorica Tutin &amp; E.F. Warb. (Syn. : Daboecia polifolia sensu Trel., non D. Don) : endémique des Açores ; à plus petites feuilles et à port plus prostré que Daboecia cantabrica, atteignant 20 cm de hauteur.
-Daboecia cantabrica (Huds.) K. Koch (Syn. : Bryanthus polifolius Merino, Daboecia polifolia D. Don) — bruyère cantabrique, bruyère de St.-Dabeoc : grandes fleurs pourprées urcéolées en grappes terminales, atteignant 40 cm de hauteur ; Irlande, ouest (Maine-et-Loire et Grande Brière) et sud-ouest de la France (rare), et nord de la péninsule ibérique.
-Genre Erica
-Erica arborea L. — bruyère arborescente : bruyère arbustive à petites fleurs blanches en grappes terminales, pouvant atteindre 6 m de hauteur ; bassin méditerranéen, Macaronésie et montagnes d’Arabie et de l’Afrique orientale.
+          <t>Genre Calluna</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Calluna vulgaris (L.) Hull (Syn. : Ericodes vulgaris (L.) Merino) — bruyère callune, bruyère commune : Europe, Afrique du Nord et Asie Mineure. Var. hirsuta Gray est à feuilles tomenteuses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bruyère</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les espèces européennes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genre Bruckenthalia</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bruckenthalia spiculifolia (Salisb.) Rchb. (Syn. Erica spiculifolia Salisb.) — bruyère en épi : bruyère à petites fleurs rosées en ombelles terminales, atteignant 25 cm de hauteur ; Roumanie, Balkans et nord de la Turquie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bruyère</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les espèces européennes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genre Daboecia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Daboecia azorica Tutin &amp; E.F. Warb. (Syn. : Daboecia polifolia sensu Trel., non D. Don) : endémique des Açores ; à plus petites feuilles et à port plus prostré que Daboecia cantabrica, atteignant 20 cm de hauteur.
+Daboecia cantabrica (Huds.) K. Koch (Syn. : Bryanthus polifolius Merino, Daboecia polifolia D. Don) — bruyère cantabrique, bruyère de St.-Dabeoc : grandes fleurs pourprées urcéolées en grappes terminales, atteignant 40 cm de hauteur ; Irlande, ouest (Maine-et-Loire et Grande Brière) et sud-ouest de la France (rare), et nord de la péninsule ibérique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bruyère</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les espèces européennes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genre Erica</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Erica arborea L. — bruyère arborescente : bruyère arbustive à petites fleurs blanches en grappes terminales, pouvant atteindre 6 m de hauteur ; bassin méditerranéen, Macaronésie et montagnes d’Arabie et de l’Afrique orientale.
 Erica australis L. (Syn. : Erica aragonensis Willk., Erica occidentalis Merino) – bruyère australe : bruyère arbustive à fleurs pourprées cylindriques en corymbes terminaux, atteignant 2 m de hauteur ; centre et ouest de la péninsule ibérique, nord du Maroc.
 Erica carnea L. (Syn. : Erica mediterranea L., Erica herbacea L.) – bruyère des neiges, bruyère des Alpes : bruyère à fleurs lilas en courtes grappes, souvent prostrée, atteignant jusqu’à 50 cm de hauteur ; Alpes et régions adjacentes, Apennins et nord des Balkans, en sol calcaire ou dolomitique.
 Erica ciliaris L. — bruyère ciliée : bruyère à fleurs roses cylindriques à urcéolées en grappes allongées, atteignant 50 cm de hauteur ; ouest de la France, îles britanniques, péninsule ibérique et nord du Maroc.
@@ -548,9 +667,43 @@
 Là où les parents croissent ensemble on peut rencontrer des hybrides naturels, notamment :
 Erica ×praegeri Ostenf. (Syn. Erica ×stuartii Linton), hybride entre Erica tetralix et Erica mackaiana.
 Erica ×watsonii Benth., hybride entre Erica ciliaris et Erica tetralix.
-Erica ×williamsii Druce, hybride entre Erica tetralix et Erica vagans.
-Culture
-Plus de 100 cultivars de Calluna vulgaris ont été sélectionnés pour leur habitus (rampant ou dressé, nain ou arbustif), la couleur de leurs fleurs (blanche, rose, lilas ou rouge) et de leur feuillage (vert, grisâtre, doré ou bronze), et leur période de floraison (juin à décembre). Certains cultivars sont à fleurs doubles, d’autres sont cléistogames. La rusticité des cultivars est variable ; la plupart sont rustiques à très rustiques, quelques-uns sont gélifs.
+Erica ×williamsii Druce, hybride entre Erica tetralix et Erica vagans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bruyère</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les espèces européennes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus de 100 cultivars de Calluna vulgaris ont été sélectionnés pour leur habitus (rampant ou dressé, nain ou arbustif), la couleur de leurs fleurs (blanche, rose, lilas ou rouge) et de leur feuillage (vert, grisâtre, doré ou bronze), et leur période de floraison (juin à décembre). Certains cultivars sont à fleurs doubles, d’autres sont cléistogames. La rusticité des cultivars est variable ; la plupart sont rustiques à très rustiques, quelques-uns sont gélifs.
 La rusticité des espèces du genre Erica est très variable. Les plus rustiques sont Erica carnea et Erica tetralix. Erica cinerea, Erica terminalis et Erica vagans et les hybrides Erica ×praegeri, Erica ×watsonii et Erica ×williamsii sont un peu moins rustiques. Erica arborea, Erica ciliaris et Erica mackaiana craignent les fortes gelées. Erica erigena, Erica lusitanica, Erica manipuliflora, Erica multiflora, Erica scoparia, Erica sicula et Erica umbellata sont peu rustiques. Bruckenthalia spiculifolia est moyennement rustique. Daboecia cantabrica craint les fortes gelées.
 De nombreux cultivars, surtout de Erica cinerea, Erica herbacea, Erica tetralix et Erica vagans, ont été sélectionnés pour leur habitus, la couleur de leurs fleurs et de leur feuillage, et leur période de floraison.
 Les hybrides horticoles suivants sont répandus en culture :
@@ -562,31 +715,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bruy%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bruy%C3%A8re</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bruyère</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Les espèces africaines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plus de 700 autres espèces africaines du genre Erica.
 La majorité des espèces sont originaires de l’Afrique du Sud, où elles poussent avec les Protea et d'autres espèces arbustives dans le fynbos (le maquis sud-africain). La plupart des bruyères sud-africaines ont de grandes fleurs tubulées.
@@ -596,62 +751,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bruy%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bruy%C3%A8re</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bruyère</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique Erica vient du grec ancien ἐρείκη / ereíkê, emprunté par le latin sous la forme erice ou erica, et conservé dans l'italien erica. Le mot français bruyère dérive du gaulois bruccos (bruyère), via le latin populaire brucaria (fougeraie, lande de bruyères). Des formes apparentées sont attestées dans des parlers de toute l'ancienne Gaule et en Italie du nord (Gaule cisalpine). Le mot est d'ailleurs au sens propre, comme l'italien brughièra, un dérivé signifiant terrain couvert de bruyère, lande; le mot simple désignant la plante (en gaulois brukos ou bruka) est attesté dans des parlers locaux, comme l'ancien provençal bruc ou le breton brug. Les formes du celtique insulaire (irlandais froech, gallois grug, cornique gruk) montrent que la forme primitive était wroikos ou wroika (avec l'initiale passée à b- en celtique continental). Il est très probable que l'ancien celtique wroika et le grec ἐρείκη ont la même origine[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique Erica vient du grec ancien ἐρείκη / ereíkê, emprunté par le latin sous la forme erice ou erica, et conservé dans l'italien erica. Le mot français bruyère dérive du gaulois bruccos (bruyère), via le latin populaire brucaria (fougeraie, lande de bruyères). Des formes apparentées sont attestées dans des parlers de toute l'ancienne Gaule et en Italie du nord (Gaule cisalpine). Le mot est d'ailleurs au sens propre, comme l'italien brughièra, un dérivé signifiant terrain couvert de bruyère, lande; le mot simple désignant la plante (en gaulois brukos ou bruka) est attesté dans des parlers locaux, comme l'ancien provençal bruc ou le breton brug. Les formes du celtique insulaire (irlandais froech, gallois grug, cornique gruk) montrent que la forme primitive était wroikos ou wroika (avec l'initiale passée à b- en celtique continental). Il est très probable que l'ancien celtique wroika et le grec ἐρείκη ont la même origine.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bruy%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bruy%C3%A8re</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bruyère</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rhizome d'Erica arborea, ou bruyère arborescente, est essentiellement utilisé pour la confection de fourneau de pipe grâce à la grande résistance à la chaleur et au feu de son bois.
 Les sommités fleuries, préparées en cataplasme, soulagent les engelures et les douleurs rhumatismales et autres troubles ostéo-articulaires.[réf. souhaitée]
@@ -661,38 +820,113 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bruy%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bruy%C3%A8re</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bruyère</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Langage des fleurs
-Dans le langage des fleurs, la bruyère symbolise la solitude ou l'amour solide[2].
-Calendrier républicain
-Le nom de la bruyère fut attribué au 22e jour du mois de frimaire dudit calendrier révolutionnaire français[3], généralement chaque 12 décembre du grégorien.
-Dans la culture
-La bruyère est valorisée dans le tube musette français Bruyères corréziennes, interprété par l'accordéoniste Jean Ségurel.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, la bruyère symbolise la solitude ou l'amour solide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bruyère</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la bruyère fut attribué au 22e jour du mois de frimaire dudit calendrier révolutionnaire français, généralement chaque 12 décembre du grégorien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bruyère</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruy%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bruyère est valorisée dans le tube musette français Bruyères corréziennes, interprété par l'accordéoniste Jean Ségurel.
 </t>
         </is>
       </c>
